--- a/CS162-KTLT-Summer2020-Project Summary.xlsx
+++ b/CS162-KTLT-Summer2020-Project Summary.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542B2BB3-BC9B-450B-891C-3ED84D8EDDE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="PeriodInPlan">PROJFUNCTIONS!A$6=MEDIAN(PROJFUNCTIONS!A$6,PROJFUNCTIONS!$G1,PROJFUNCTIONS!$G1+PROJFUNCTIONS!$H1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*(PROJFUNCTIONS!$G1&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -643,7 +642,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d/m"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -1344,15 +1343,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
+    <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Percent Complete" xfId="6"/>
+    <cellStyle name="Period Headers" xfId="3"/>
+    <cellStyle name="Period Highlight Control" xfId="7"/>
+    <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -1504,7 +1503,6 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1515,7 +1513,6 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1527,7 +1524,6 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1538,7 +1534,6 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1550,7 +1545,6 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1561,7 +1555,6 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1572,7 +1565,6 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1583,7 +1575,6 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1632,19 +1623,16 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1652,12 +1640,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1669,17 +1651,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="C6:H11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="C6:H11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C6:H11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="C6:H11"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STUDENT ID" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FULL NAME" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EMAIL" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{0E6AA203-A562-47F1-A98F-70894F727552}" name="PHONE NUMBER" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{94CF678C-C93F-E14A-A294-210CDDAF0D2C}" name=" % CONTRIBUTION" dataDxfId="11">
+    <tableColumn id="1" name="STUDENT ID" dataDxfId="15"/>
+    <tableColumn id="3" name="FULL NAME" dataDxfId="14"/>
+    <tableColumn id="4" name="EMAIL" dataDxfId="13"/>
+    <tableColumn id="2" name="PHONE NUMBER" dataDxfId="12"/>
+    <tableColumn id="5" name=" % CONTRIBUTION" dataDxfId="11">
       <calculatedColumnFormula>H7/$H$10*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A50B1A6A-4A25-2944-B964-62AD0EAEB0D4}" name="NUMBER OF GIT COMMITS" dataDxfId="10"/>
+    <tableColumn id="6" name="NUMBER OF GIT COMMITS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1911,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -2071,14 +2053,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2317,9 +2299,9 @@
     <mergeCell ref="A1:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{7BC22782-72FC-46B1-AAE4-818BB81BBFBC}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{4255581C-BC83-4515-ACF9-509775BEEEEF}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{F7E8E751-FD42-4921-952D-AE83D86054C7}"/>
+    <hyperlink ref="E9" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2332,19 +2314,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BQ87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="6" topLeftCell="P9" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="12" ySplit="6" topLeftCell="P52" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3348,7 +3330,7 @@
       </c>
       <c r="F22" s="41">
         <f>SUM(F25:F35)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G22" s="64"/>
       <c r="H22" s="64"/>
@@ -3382,7 +3364,7 @@
       </c>
       <c r="F24" s="41">
         <f>SUM(F32:F35)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="64"/>
       <c r="H24" s="64"/>
@@ -3635,7 +3617,9 @@
       <c r="E32" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="38"/>
+      <c r="F32" s="38">
+        <v>1</v>
+      </c>
       <c r="G32" s="64">
         <v>40</v>
       </c>
@@ -3666,7 +3650,9 @@
       <c r="E33" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="38"/>
+      <c r="F33" s="38">
+        <v>1</v>
+      </c>
       <c r="G33" s="64">
         <v>40</v>
       </c>
@@ -3720,7 +3706,9 @@
       <c r="E35" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="38"/>
+      <c r="F35" s="38">
+        <v>1</v>
+      </c>
       <c r="G35" s="64">
         <v>41</v>
       </c>
@@ -3753,7 +3741,7 @@
       </c>
       <c r="F36" s="41">
         <f>SUM(F37:F41)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36" s="64"/>
       <c r="H36" s="64"/>
@@ -3773,7 +3761,9 @@
         <v>1</v>
       </c>
       <c r="E37" s="69"/>
-      <c r="F37" s="38"/>
+      <c r="F37" s="38">
+        <v>1</v>
+      </c>
       <c r="G37" s="64">
         <v>15</v>
       </c>
@@ -3802,7 +3792,9 @@
         <v>1</v>
       </c>
       <c r="E38" s="69"/>
-      <c r="F38" s="38"/>
+      <c r="F38" s="38">
+        <v>1</v>
+      </c>
       <c r="G38" s="64">
         <v>20</v>
       </c>
@@ -3848,7 +3840,9 @@
         <v>1</v>
       </c>
       <c r="E40" s="69"/>
-      <c r="F40" s="38"/>
+      <c r="F40" s="38">
+        <v>1</v>
+      </c>
       <c r="G40" s="64">
         <v>15</v>
       </c>
@@ -3877,7 +3871,9 @@
         <v>1</v>
       </c>
       <c r="E41" s="69"/>
-      <c r="F41" s="38"/>
+      <c r="F41" s="38">
+        <v>1</v>
+      </c>
       <c r="G41" s="64">
         <v>20</v>
       </c>
@@ -3910,7 +3906,7 @@
       </c>
       <c r="F42" s="41">
         <f>SUM(F45:F51)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" s="64"/>
       <c r="H42" s="64"/>
@@ -3927,7 +3923,7 @@
       </c>
       <c r="F43" s="41">
         <f>SUM(F51,F45:F47)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43" s="64"/>
       <c r="H43" s="64"/>
@@ -3966,7 +3962,9 @@
       <c r="E45" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="38"/>
+      <c r="F45" s="38">
+        <v>1</v>
+      </c>
       <c r="G45" s="64">
         <v>40</v>
       </c>
@@ -3997,7 +3995,9 @@
       <c r="E46" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F46" s="38"/>
+      <c r="F46" s="38">
+        <v>1</v>
+      </c>
       <c r="G46" s="64">
         <v>40</v>
       </c>
@@ -4028,7 +4028,9 @@
       <c r="E47" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="38"/>
+      <c r="F47" s="38">
+        <v>1</v>
+      </c>
       <c r="G47" s="64">
         <v>15</v>
       </c>
@@ -4185,7 +4187,7 @@
       </c>
       <c r="F52" s="41">
         <f>SUM(F55:F58)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G52" s="64"/>
       <c r="H52" s="64"/>
@@ -4219,7 +4221,7 @@
       </c>
       <c r="F54" s="41">
         <f>SUM(F56:F58)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="64"/>
       <c r="H54" s="64"/>
@@ -4274,7 +4276,9 @@
       <c r="E56" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="38"/>
+      <c r="F56" s="38">
+        <v>1</v>
+      </c>
       <c r="G56" s="64">
         <v>25</v>
       </c>
@@ -4305,7 +4309,9 @@
       <c r="E57" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="38"/>
+      <c r="F57" s="38">
+        <v>1</v>
+      </c>
       <c r="G57" s="64">
         <v>41</v>
       </c>
@@ -4336,7 +4342,9 @@
       <c r="E58" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="38"/>
+      <c r="F58" s="38">
+        <v>1</v>
+      </c>
       <c r="G58" s="64">
         <v>25</v>
       </c>
@@ -4369,7 +4377,7 @@
       <c r="E60" s="43"/>
       <c r="F60" s="43">
         <f>SUM(F8,F14,F22,F36,F42,F52)</f>
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4504,7 +4512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167154E8-4B3C-4AE3-A2D5-CEB0BD01F89A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.499984740745262"/>
   </sheetPr>

--- a/CS162-KTLT-Summer2020-Project Summary.xlsx
+++ b/CS162-KTLT-Summer2020-Project Summary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A52C59B-AD9B-460D-A8B1-DFBBB5C0F662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="PeriodInPlan">PROJFUNCTIONS!A$6=MEDIAN(PROJFUNCTIONS!A$6,PROJFUNCTIONS!$G1,PROJFUNCTIONS!$G1+PROJFUNCTIONS!$H1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*(PROJFUNCTIONS!$G1&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -642,7 +643,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d/m"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -1343,15 +1344,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
-    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6"/>
-    <cellStyle name="Period Headers" xfId="3"/>
-    <cellStyle name="Period Highlight Control" xfId="7"/>
-    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -1623,16 +1624,19 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1640,6 +1644,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1651,17 +1661,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C6:H11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="C6:H11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="C6:H11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="C6:H11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="STUDENT ID" dataDxfId="15"/>
-    <tableColumn id="3" name="FULL NAME" dataDxfId="14"/>
-    <tableColumn id="4" name="EMAIL" dataDxfId="13"/>
-    <tableColumn id="2" name="PHONE NUMBER" dataDxfId="12"/>
-    <tableColumn id="5" name=" % CONTRIBUTION" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STUDENT ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FULL NAME" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EMAIL" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PHONE NUMBER" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name=" % CONTRIBUTION" dataDxfId="11">
       <calculatedColumnFormula>H7/$H$10*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NUMBER OF GIT COMMITS" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NUMBER OF GIT COMMITS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1893,7 +1903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -2053,14 +2063,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2177,10 +2187,10 @@
       </c>
       <c r="G8" s="67">
         <f t="shared" ref="G8:G9" si="0">H8/$H$10*100%</f>
-        <v>0</v>
+        <v>0.18604651162790697</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2199,7 +2209,7 @@
       </c>
       <c r="G9" s="67">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.81395348837209303</v>
       </c>
       <c r="H9" s="3">
         <v>70</v>
@@ -2211,7 +2221,7 @@
       <c r="G10" s="67"/>
       <c r="H10" s="3">
         <f>SUM(H7:H9)</f>
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2299,9 +2309,9 @@
     <mergeCell ref="A1:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2314,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2322,11 +2332,11 @@
   <dimension ref="A1:BQ87"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="6" topLeftCell="P52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="6" topLeftCell="P67" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3103,7 +3113,7 @@
       </c>
       <c r="F14" s="32">
         <f>SUM(F15:F21)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
@@ -3123,7 +3133,9 @@
         <v>3</v>
       </c>
       <c r="E15" s="69"/>
-      <c r="F15" s="38"/>
+      <c r="F15" s="38">
+        <v>2</v>
+      </c>
       <c r="G15" s="64">
         <v>15</v>
       </c>
@@ -3152,7 +3164,9 @@
         <v>1</v>
       </c>
       <c r="E16" s="69"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="38">
+        <v>1</v>
+      </c>
       <c r="G16" s="64">
         <v>25</v>
       </c>
@@ -3181,7 +3195,9 @@
         <v>1</v>
       </c>
       <c r="E17" s="69"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="38">
+        <v>1</v>
+      </c>
       <c r="G17" s="64">
         <v>25</v>
       </c>
@@ -3210,7 +3226,9 @@
         <v>1</v>
       </c>
       <c r="E18" s="69"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="38">
+        <v>1</v>
+      </c>
       <c r="G18" s="64">
         <v>30</v>
       </c>
@@ -3239,7 +3257,9 @@
         <v>1</v>
       </c>
       <c r="E19" s="69"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="38">
+        <v>1</v>
+      </c>
       <c r="G19" s="64">
         <v>32</v>
       </c>
@@ -3268,7 +3288,9 @@
         <v>1</v>
       </c>
       <c r="E20" s="69"/>
-      <c r="F20" s="38"/>
+      <c r="F20" s="38">
+        <v>1</v>
+      </c>
       <c r="G20" s="64">
         <v>32</v>
       </c>
@@ -3297,7 +3319,9 @@
         <v>1</v>
       </c>
       <c r="E21" s="69"/>
-      <c r="F21" s="38"/>
+      <c r="F21" s="38">
+        <v>1</v>
+      </c>
       <c r="G21" s="64">
         <v>32</v>
       </c>
@@ -3906,7 +3930,7 @@
       </c>
       <c r="F42" s="41">
         <f>SUM(F45:F51)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G42" s="64"/>
       <c r="H42" s="64"/>
@@ -3940,7 +3964,7 @@
       </c>
       <c r="F44" s="41">
         <f>SUM(F48:F50)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G44" s="64"/>
       <c r="H44" s="64"/>
@@ -4061,7 +4085,9 @@
       <c r="E48" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="38"/>
+      <c r="F48" s="38">
+        <v>1</v>
+      </c>
       <c r="G48" s="64">
         <v>40</v>
       </c>
@@ -4092,7 +4118,9 @@
       <c r="E49" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="F49" s="38"/>
+      <c r="F49" s="38">
+        <v>2</v>
+      </c>
       <c r="G49" s="64">
         <v>40</v>
       </c>
@@ -4123,7 +4151,9 @@
       <c r="E50" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="F50" s="38"/>
+      <c r="F50" s="38">
+        <v>1</v>
+      </c>
       <c r="G50" s="64">
         <v>40</v>
       </c>
@@ -4377,7 +4407,7 @@
       <c r="E60" s="43"/>
       <c r="F60" s="43">
         <f>SUM(F8,F14,F22,F36,F42,F52)</f>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4512,7 +4542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="-0.499984740745262"/>
   </sheetPr>

--- a/CS162-KTLT-Summer2020-Project Summary.xlsx
+++ b/CS162-KTLT-Summer2020-Project Summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A52C59B-AD9B-460D-A8B1-DFBBB5C0F662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C48F099-45C0-418C-8833-27A43350C4EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,14 +1345,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2070,7 +2070,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2164,11 +2164,10 @@
         <v>901436732</v>
       </c>
       <c r="G7" s="67">
-        <f>H7/$H$10*100%</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2186,11 +2185,10 @@
         <v>939826562</v>
       </c>
       <c r="G8" s="67">
-        <f t="shared" ref="G8:G9" si="0">H8/$H$10*100%</f>
-        <v>0.18604651162790697</v>
+        <v>0.2</v>
       </c>
       <c r="H8" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2208,20 +2206,22 @@
         <v>903371927</v>
       </c>
       <c r="G9" s="67">
-        <f t="shared" si="0"/>
-        <v>0.81395348837209303</v>
+        <v>0.6</v>
       </c>
       <c r="H9" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="55"/>
       <c r="D10" s="57"/>
-      <c r="G10" s="67"/>
+      <c r="G10" s="67">
+        <f>SUM(G7:G9)</f>
+        <v>1</v>
+      </c>
       <c r="H10" s="3">
         <f>SUM(H7:H9)</f>
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2314,9 +2314,6 @@
     <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="G7:G9" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId4"/>
   </tableParts>
@@ -2332,11 +2329,11 @@
   <dimension ref="A1:BQ87"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="6" topLeftCell="P67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="6" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3149,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="K15" s="65">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3930,7 +3927,7 @@
       </c>
       <c r="F42" s="41">
         <f>SUM(F45:F51)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G42" s="64"/>
       <c r="H42" s="64"/>
@@ -3947,7 +3944,7 @@
       </c>
       <c r="F43" s="41">
         <f>SUM(F51,F45:F47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" s="64"/>
       <c r="H43" s="64"/>
@@ -4184,7 +4181,9 @@
       <c r="E51" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="38"/>
+      <c r="F51" s="38">
+        <v>1</v>
+      </c>
       <c r="G51" s="64">
         <v>15</v>
       </c>
@@ -4407,7 +4406,7 @@
       <c r="E60" s="43"/>
       <c r="F60" s="43">
         <f>SUM(F8,F14,F22,F36,F42,F52)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4503,6 +4502,9 @@
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F54" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
